--- a/update-mapping-pn13/ig/ValueSet-route-of-administration-valueset.xlsx
+++ b/update-mapping-pn13/ig/ValueSet-route-of-administration-valueset.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from SNOMED CT (all v" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T08:47:04+00:00</t>
+    <t>2024-06-03T12:03:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://snomed.info/sct</t>
+    <t>http://ltsi.univ-rennes.fr/CodeSystem/snomedct</t>
   </si>
 </sst>
 </file>
